--- a/df_list_20250103.xlsx
+++ b/df_list_20250103.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="111">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -241,16 +241,125 @@
   </si>
   <si>
     <t>고성탈박물관 전시설계 및 제작 설치사업 제안서 평가결과 공고 의뢰</t>
+  </si>
+  <si>
+    <t>A056</t>
+  </si>
+  <si>
+    <t>경기도_안산시</t>
+  </si>
+  <si>
+    <t>https://www.ansan.go.kr/www/common/bbs/selectPageListBbs.do?bbs_code=WWW13&amp;currentPage=2</t>
+  </si>
+  <si>
+    <t>2025년 안산시 통합예약시스템 기능강화 및 유지관리 용역 사업 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>경상도_구미시</t>
+  </si>
+  <si>
+    <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
+  </si>
+  <si>
+    <t>2025년 구미 야시장 운영 용역 제안서 평가위원 명단 및 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>2024년 구미시 청원심의회 회의록 게시</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>충남도로관리사업소</t>
+  </si>
+  <si>
+    <t>음봉일반산업단지 진입도로 개설공사 공법 선정 기술제안서 제출 안내 취소 공고</t>
+  </si>
+  <si>
+    <t>노화~평촌 지방도 확포장공사 외 1개 사업 공법 선정 기술제안서 제출 안내 취소 공고</t>
+  </si>
+  <si>
+    <t>2025년 소화조 및 저류조 준설공사 특정공법 제안서 제출 안내 공고</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=1</t>
+  </si>
+  <si>
+    <t>2025년 경기도 민방위 사이버 교육 운영 적격업체 선별을 위한 심의 공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=4</t>
+  </si>
+  <si>
+    <t>경기지역화폐 공동운영대행사 선정 제안서평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=2</t>
+  </si>
+  <si>
+    <t>『소하천(산수천) 정비사업』신기술・특허공법 선정 안내 공고</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=6</t>
+  </si>
+  <si>
+    <t>A084</t>
+  </si>
+  <si>
+    <t>강원도_양양군</t>
+  </si>
+  <si>
+    <t>https://eminwon.yangyang.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05,06</t>
+  </si>
+  <si>
+    <t>양양군 건축위원회 심의지역(변경) 지정·공고</t>
+  </si>
+  <si>
+    <t>https://www.hongcheon.go.kr/www/selectEminwonList.do?key=278&amp;pageIndex=3</t>
+  </si>
+  <si>
+    <t>A114</t>
+  </si>
+  <si>
+    <t>충청도_천안시</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheonan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;epcCheck=Y&amp;recent_mm=60</t>
+  </si>
+  <si>
+    <t>「2025년 어린이날기념 천안어린이행복주간 행사 대행 용역」 제안서 평가...</t>
+  </si>
+  <si>
+    <t>A120</t>
+  </si>
+  <si>
+    <t>충청도_태안군</t>
+  </si>
+  <si>
+    <t>http://eminwon.taean.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05&amp;list_gubun=A</t>
+  </si>
+  <si>
+    <t>백화산 물놀이공원 얼음 썰매장 설치 및 운영 용역 제안서 평가결과 공고</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -272,6 +381,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -312,6 +425,15 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1076,36 +1198,606 @@
         <v>45660.58590277778</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45660.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45659.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45661.00577546296</v>
+      </c>
+    </row>
     <row r="58" ht="15.75" customHeight="1"/>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
@@ -2050,9 +2742,41 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C28"/>
+    <hyperlink r:id="rId2" ref="C29"/>
+    <hyperlink r:id="rId3" ref="C30"/>
+    <hyperlink r:id="rId4" ref="C31"/>
+    <hyperlink r:id="rId5" ref="C32"/>
+    <hyperlink r:id="rId6" location="list/1" ref="C33"/>
+    <hyperlink r:id="rId7" location="list/1" ref="C34"/>
+    <hyperlink r:id="rId8" location="list/1" ref="C35"/>
+    <hyperlink r:id="rId9" location="list/1" ref="C36"/>
+    <hyperlink r:id="rId10" ref="C37"/>
+    <hyperlink r:id="rId11" location="page=1" ref="C38"/>
+    <hyperlink r:id="rId12" location="page=4" ref="C39"/>
+    <hyperlink r:id="rId13" ref="C40"/>
+    <hyperlink r:id="rId14" ref="C41"/>
+    <hyperlink r:id="rId15" ref="C42"/>
+    <hyperlink r:id="rId16" ref="C43"/>
+    <hyperlink r:id="rId17" ref="C44"/>
+    <hyperlink r:id="rId18" ref="C45"/>
+    <hyperlink r:id="rId19" ref="C46"/>
+    <hyperlink r:id="rId20" ref="C47"/>
+    <hyperlink r:id="rId21" ref="C48"/>
+    <hyperlink r:id="rId22" ref="C49"/>
+    <hyperlink r:id="rId23" ref="C50"/>
+    <hyperlink r:id="rId24" ref="C51"/>
+    <hyperlink r:id="rId25" ref="C52"/>
+    <hyperlink r:id="rId26" ref="C53"/>
+    <hyperlink r:id="rId27" ref="C54"/>
+    <hyperlink r:id="rId28" ref="C55"/>
+    <hyperlink r:id="rId29" ref="C56"/>
+    <hyperlink r:id="rId30" ref="C57"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>